--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/5_Aksaray_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/5_Aksaray_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0224B237-26BE-463A-8909-F9E07DE7F6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91761350-E010-4B7C-AE60-E3EAAC17B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{264F84B2-2CBE-475C-9A5D-7C8423DD534C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{19A14985-07F8-4818-858C-ECC3B0917CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -934,14 +934,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C6AC75E3-7BD3-45E6-A439-74E706DF10CC}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5819BCA6-0029-4A8A-854E-55E5E227DF65}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{49A2C812-50C5-4E57-A866-14B593CBB6D5}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{3A1370DF-0EEF-4172-AF94-A5E184B6AD70}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D8F09667-D927-4B0B-B7DE-590E17C9DCBF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D754029E-3EEE-4009-B308-E01DAD5287AE}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{30DEAF94-53BC-463C-813D-027995B297C6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{42318039-E6E4-4EDE-8FC9-104030168E97}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1F0B34CE-6257-4CAF-ACE8-B21C3C4705ED}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AB638E81-D56D-4013-8736-7A71CEFCBCC6}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{1E885A37-7B40-4031-9D6C-C4C676ACE671}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{4BC33ED3-1FC5-4CA2-84B3-435B2408A613}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{BEF6592A-CE09-4422-A1D7-965AE880F80F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C49D0BBA-7075-4905-830C-47C21A15C155}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{4CF1838C-B303-4931-89DF-2C0BBA3F6942}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2E3EB887-879D-4254-B8E5-6A768A0BED2C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1311,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9FEF94-7A96-45BC-9FEF-B0B6176FD05B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E751073-0CAD-48C8-A2A6-A3C2E195F2E7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2550,18 +2550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5621DBCC-FA15-42B4-848D-D635097D6520}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{929C20DC-CE59-485A-9968-8645063A3D6E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FA6A446B-E3C5-44D2-8D9F-8255B4681B92}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1461BA11-0364-4812-8F9D-DFC843822F87}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3E5D9B5-2CA2-496B-9C6B-31A68FEF73CF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{44A90393-A17A-4E34-9F35-80CD81599F7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8FEE84F-A6B5-4317-9374-FBA522E55205}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C71CE424-00E4-4D2C-B455-3DF77C869FFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03231DD6-7DB4-4946-BB98-13A5E76C4191}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6497244D-91DB-44B0-B4D2-43869FF43376}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAE74CE4-86F6-4A5C-A9A3-DA740B3E779B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A968DB84-201E-43FB-8B01-5A2CCF4A6A3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6EFF303E-24EA-445F-B99A-6FAA408B51EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A077746D-4213-4018-931A-81AE1D2CA51E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E227C9B-0ED2-4E3A-9741-1BCEF484477A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87A7DFEC-A992-4355-947D-8DD72C47320F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74A70269-3506-4579-B522-A7D42F5D59ED}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D820CEAC-5BAF-431A-A9D7-6A9A9E7FA6B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE61978A-4031-48E1-8AF9-EC5C6AE197AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8C42A1E-316F-43A9-948F-C28DDB7E2252}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{185457E8-8DAA-46E9-9F10-453C9400E47F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78189A38-63E1-427C-BFD6-DB48AE735798}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF46B21D-5138-41FC-AF1A-55D1F04AD0BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F73070E-8CFA-4619-8584-2C729183D846}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F289C0E3-7E03-42D8-8524-C1DEB9266081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2928D56A-AD75-4EE2-847E-F6437339A8A6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3801,18 +3801,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C333871-251F-41E5-B6AC-66B1EBDBCD1B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0276706-1598-4A29-8AB7-36B41480E3E6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D518B2A7-52F2-4945-95FB-BAF9C5638F97}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8FB8EFEA-C701-4ECB-927D-2F04B8528022}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBBF7711-F71B-419F-89E9-7F5974F29C51}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D46B5E4-C24A-4C47-B8A0-6542435CFAB4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F916501-E28A-4E10-A883-3F7B56AF0052}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12B1C6D2-591B-411E-8D55-39754C3E51FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3099A8F1-E0C0-40BA-B17B-7DEB632B108B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{05407D1B-2BF6-4FD3-8989-3DB6D42382A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE357333-A761-45FF-BD39-BFC07540B180}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7E0DCC9-FCFC-4F70-AB1A-6D8F11EC767C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40473D8C-F77A-4B4A-97C5-1596856BE530}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DA35AE3-E887-4DD7-9A2E-EF2D3C3A8533}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C0FFCE1E-E939-4EAD-8165-23A01C33DFA6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3BCEDB1E-C6AE-4C42-9259-29D66673B150}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9CF842F-39B0-45A0-9FAA-302EDD0DDAA7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E6A6D94-DC58-4ADB-94E9-FC1F0CAB7794}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AA8566C-63E8-4014-9A73-70E8D5F6B612}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A9A665F-FDDD-423E-B542-BC1A47E9C063}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33868081-2268-43FB-BC72-7CD12CAB5C68}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA0F4312-CFB3-4A4F-8683-B8EAF5E2079A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DB52432-A890-4A74-9A7F-561380C314E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DBC1C41-23F4-4A09-AD2F-7CD755D8E012}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3825,7 +3825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEC1CA8-510D-49A9-B932-8FD2974549BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8507F1E3-8E8E-480C-87BE-4A1B7822E28C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5046,18 +5046,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E80E8BE5-DCDE-4554-A669-85D0FB75600F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC0AC99E-0163-4A7F-AFC0-A80CF6451250}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7EEFFC7D-5BCB-4087-A942-96FA76311A05}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{065BF75E-E384-4230-825B-6791D9D77828}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD569958-D222-4547-B750-3238F2AD82F5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9CE4E67D-B95B-421E-B78C-1D33882F736C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AEF0B103-29A8-4769-853B-AC6F2D651911}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBD1AFDA-142B-47BB-BCA5-D757EF30ACB9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3AF40C8B-9818-4E87-9C14-269060805460}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B32A01A5-766F-4797-9A6D-727DA9A8896E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{716897BF-4EBD-44C1-8BBA-117FBD435F31}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE284A0D-2E0B-4EAD-9FF2-B89B69EEA08D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EA19A08-4023-45F3-B4CE-7F6A2CE1C411}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB35E867-B20C-4844-BFDD-3568D36EF06D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{623EB287-C283-46A1-A84B-3368B8733E58}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{69ED96C9-FD78-440A-BA75-C378213A2FD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45359A69-2502-4605-AF6E-E18EF3451FE1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3120DF85-F9D6-47A1-B88C-53FB2CF0B0B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1DF6904-A7E4-4F3C-A349-1DC85B00C68C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98B9DBC7-681D-479E-A3B7-1717BD0E8DE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B73312C-3D1C-4205-B94B-16D441978B16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A19BAF27-2E47-432A-81BA-0733F49B4BE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26DA03D1-423F-490F-9D23-B4059D67EAD6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B808F105-C845-40BC-BB27-924D3617CDA4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5070,7 +5070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32AA1E-7FAE-43F4-A0B5-6D29FE0BBC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44096E56-F557-431C-87EC-DA50B0976638}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6287,18 +6287,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30BE5539-9035-4F56-BBAA-58807023FD4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46710A26-4E8C-4441-A13D-34CF35E25D52}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D48F605A-71B2-4F4D-BB08-4B57A55BE574}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D5A2ACE-0DE0-4125-85F8-6888F6E22FE3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66828079-B409-46FF-A48F-46D9198D0C32}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3212CBB1-3D01-4243-A808-B8B857E33818}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D49E5459-A816-4FD2-A5FD-F67C11AEC808}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82A4CBBE-E603-48A8-9467-75D7A04A5A21}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5964E38A-639A-4038-ADE0-C216CAB12EEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BBB44ADE-0F28-454A-A4CE-A159F67128C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5543FDC5-1CD9-465E-8EFE-824E5587A0FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5D0B36E-8D3A-4736-A389-3F61ECF423ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FCFBDE4-61A1-4B97-81D5-39A6CF6458D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{935123DE-EE1F-4451-9203-E97F3F351254}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4442945A-51F7-46C4-B0DF-AFE4DA6411B6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D99D4DE7-6805-42CA-9564-E63121E0685A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8309CDA-969E-4BBA-8E86-C00605F1752C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B6F7DE8-9194-4AC8-AFC3-235106594597}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65192A0A-1F51-40B8-A319-3A9F4D5EC94E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E427B0D-C32C-4F1F-B132-18E8947207CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECE0F296-E0D2-4EDC-87CA-2DC99A5A9C04}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC2816A2-B4B1-476D-B6E3-E36F5F1ACFFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DC1EC1C-3783-4597-B46F-E35115D235E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14438981-4641-41F2-BA2E-EBA597753FF7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6311,7 +6311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8772BCB0-F3F4-4090-92FE-C86950F71AB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDFDDD0-7E2A-4BF0-B3F5-A6137252A4C5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7548,18 +7548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E65F32F-59F0-4283-98B5-850BA5C6BD45}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D069898D-8720-4A3F-8399-7FE86D468B7B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2DBA1111-B01E-4503-89E0-B1DBB05478D4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E7F04171-BB9D-4797-A2C9-BE9B805E6C5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A01EC6B8-D3EB-40E8-9E49-6489937E88FC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C94A7030-562F-4B7F-8D62-D380D9DB75AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{426E3CF9-7A64-4DA4-91C7-408BC548FF92}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7286B52E-D694-42E8-A956-4CE4E02C30D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E4EC603-4FAC-49E2-922D-A3B508429910}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{50B5FB2C-8A3B-4585-8B82-DA43B6C73D7F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0E5285D-C758-464F-86B1-856DD28D1FA7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F10A65AB-3483-48B2-874A-8C9BF36420A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{899D5242-23A7-48DF-9B1A-97AF2DAB6ADA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE75BA8A-8CE1-46A3-BEBA-FC61AF8FFC77}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{30D6A522-4B91-425D-A421-9599B545A2A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC2B8651-9081-4C61-922D-D82C9E95883E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0E9EEC0-4987-4701-814A-F6F194DC6B0F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0C68D3EF-36BF-4E19-9494-C4E30C50E9F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20EE75C2-9B28-4484-8BCE-B018D42576BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACABCA10-37B1-45EE-8F33-F37969B9C4F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6BA026B-80C9-4631-9E7E-CB0B57744443}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C66F8DDB-BD83-47A4-9357-F8ADF5032FA4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8E3884B-9E08-44B6-959B-E861B8F64DFF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DDC2E24-E2FB-4209-914E-124CB71517A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7572,7 +7572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9806E6F-DFE0-4F30-A688-2BFFD68DAAC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2938CDA-D8F9-4213-8741-D9ABAE6D4A29}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8805,18 +8805,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C80F8AB0-2318-4715-AB89-9E5C08DF4E95}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F19A04D4-7929-4820-94CA-B3F6495BE675}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69A0BF86-CCCC-4E4E-A549-B277D0E7B640}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0EBD9C05-0778-498A-B5DC-531227DD3891}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C87BAF3F-7F7E-4401-A2BF-CCEEB4E8B08F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{034B4753-7FE9-490E-9F11-36811569820B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CDE1A5C-B64D-445E-B47C-5157596AB6D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A2E6FB3-50B1-44C1-9647-8AF07ABFD000}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{711D5BE8-5148-4018-9DD4-F7F1935A6720}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4C02B28-F2E4-4732-927D-FE7A5B5D8259}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77E072E8-6DD9-4564-A5FA-9C78FA6F0A23}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F144E46F-B3E1-4387-9DD9-48FAFAA4AFCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03F95CD0-A977-4EAE-9D13-F7E7B145A800}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51C6BA53-6FDD-49F7-AE16-D5FCA9E18B3D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A6FCF172-89FA-495D-91A1-A003AE3DF8DE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9E9A47F-3D5B-45B4-B0BA-8C18158EEB2B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F986D82-574D-4CAF-A02F-5C0652082BBC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{07116B4A-B414-41A4-842E-E4D65D772428}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9C2B727-E696-4A63-9193-B388C8FAEF0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2E9FB4C-CA9B-4DFA-BD25-F200738846D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EDA5C43-2EEF-4681-B978-0BB113BD4CBD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7B5B9BB-28FE-4951-9933-F9BD8DC42961}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{349260C9-E16D-4FA3-81B7-25A414E1A694}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0298BE23-7081-4128-8772-738639CD982F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8829,7 +8829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444AEEE1-254B-4CF1-8805-8B6B0DB74A61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CEBB1D-9742-4B1C-B002-0D73E08AE781}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10062,18 +10062,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B2AF7D2-B0A8-4A18-B5B8-B1BAD10332E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C011909F-CE22-4A3F-9E0C-5729C7A362AA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B193BC47-DD04-4D1D-A13F-39B870A324F6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C9B1521B-C78E-4858-8C27-4884A9ABED78}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57E0BEB8-78C1-47FE-AEDD-7F5F6379E090}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F5DBB985-070A-4A7C-BBC0-09C45072AB55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{311B2F54-1C69-4003-85E6-884B87921365}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8EF3D87-EF02-4546-A8BD-038CF5674E19}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA33C90F-3D53-4AB3-A593-057B1E486844}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C9C8AD1-C0E0-4155-9FB5-29615FC98901}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1019713-440A-489E-9F2F-68EDB40C59B1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3120D4FD-67DB-47F6-B136-3C2C274C5C62}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0858ACA3-E2C7-425A-9A21-A3234A12DDAA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA94BE16-12BE-4683-A288-72475403E79B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B053156B-F26B-468B-A1D9-3FFD2F6CCAAD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64D45B37-F22D-43C9-AA1F-540A06882157}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D28F271C-7A07-484A-9A12-D3BF4EAB2834}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FEF1EE58-A77B-4C50-9C2A-2EE793A9716F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56ABB3B5-4286-414D-9DE4-61BFF714E0B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6DBE397-4565-4EBA-90E9-219990583805}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA987248-AB9A-4B69-840B-0C1049190FCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B4BEB96-6DBA-4569-AC6A-81F0A0398ADB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66E0F50E-E23D-46FA-A6F9-325448030A33}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4C55EDB-7F94-4674-A345-FADA04D17E8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10086,7 +10086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F075CC-08B9-49DF-8550-8F07DAA8C157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AC202E-6579-4722-A1AD-D129363FD66F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11319,18 +11319,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2C17638-1106-4DBF-BBE2-629D9B5716D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{640FAAD9-3CE7-43C6-BEE6-8A34166A0CB5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77B1B39D-1AB0-4FEC-89F8-B66BAF02FC0A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F494015C-D57E-44B4-B81B-DB463262C4C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F235EC8-7F07-464A-921E-5F46E68FD1C6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{30F89903-7B77-47AE-BB42-E544B7377F49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EFFCBFF-3D15-4BF3-818B-52496CDD5B19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{746C878D-1A80-4BD2-9D79-AD5640C6DB23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E576B235-B8BC-4A53-8651-E09BB84820DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E6DB3F6-9069-4921-A947-0916DD5D393A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CD6D6EA-236D-419C-B96C-A48E554CD940}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E25782B-09A8-4BE9-9F20-7433A2831E7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1CE1B8B-918D-49CF-A188-E9E50A267EC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBCF2606-43B2-4758-85C0-4D358D67A79D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA210F7E-A186-4740-A0CB-A62FC4EC873E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FC78EE2F-1583-4F9A-B764-EF24FA1BE762}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F23CF63B-2B37-4E51-ADA1-87A37FC72DEC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{70BF2F11-2464-4357-B818-B20C938497B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3D4983D-312E-42B6-9AF8-B4481F9D02F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA3E77FA-8758-49A7-B919-52202725E5C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7401317A-9CA4-4FF1-9852-8C24287133BB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23BFF164-8558-4088-BD5F-DFC6F1BC8B9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB56CA04-16F1-45D4-9AEB-7E903F926BFF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A34578F-081B-4097-865F-8279FEE3AA23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11343,7 +11343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50252D60-D3BF-4C76-AA18-8704E9EBE613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E95C13-2D44-4FC2-A0EC-18A1BA560288}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12576,18 +12576,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D2E7F2F9-FA39-425B-A567-CF280F7D9A1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD720F75-CF42-43AD-A04D-A9D5EF12C257}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F9F329B-BF0D-4272-9C95-AAE280C242FE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A38B3AC5-29A3-4612-B45D-279FD16CC926}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6385D6F-E97B-4A6D-B657-FF560AF42971}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{10B977BB-5C79-465B-8D5A-704BD9732D43}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8559C6F-4925-475A-B256-A4C5252B8E26}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20EFA9CD-7FC0-4089-B7FF-FD052D405DF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7A4E197-D7E8-4908-8AC4-FD955610106B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF980EBB-D802-42EB-8001-3579C745D038}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0F7664D-B79D-4D1C-8CAD-2EC5F49CDBE5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51E3F26D-3E3F-4AAC-BCC6-E8F85BF6FBAA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF23E798-06A2-4D7B-B845-E2439789DE17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69A2967C-24B8-4E49-AFAF-2914AD62A39B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{754A28BC-E71D-4A38-8073-9FDA0C851748}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF005FDE-A52D-46C4-97FA-4D80DB26D813}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E4B3FFF-972F-4033-A9CB-759567FD1311}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{06F1E95D-AA4F-4F53-A7D2-1032953ACE7A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4174A0B7-C276-4E1A-AD83-40F86DC3C455}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{446C4C2F-2390-46C3-8F46-3ED78C61E17D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AE7F87D-E057-4C03-9A90-680686DE68CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B36BB2F6-4352-4B76-BC97-EAEB231FAA9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{382F83E9-A226-4F14-B6C3-84F53565590E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CF4A7BF-8484-4BB4-99B1-06632EE29DAC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12600,7 +12600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6288F6F0-6411-4F6B-B811-A440695DAF36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686842BA-59D4-465D-8667-422DA460FDF5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13833,18 +13833,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F954F208-0EF5-4512-8294-E1AC9E32B7E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9D56880-8564-45ED-89A6-A678EFBF686D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA9695C2-018A-44FE-9E9C-131BE41E59FE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B66B9752-D771-44A2-B91B-688B5526546C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A8881D3-7A3E-40AE-9B7A-D91E0BEB2A5F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C070EB0C-58EE-4DE2-AF81-4AFCD6BCF24F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{228CDB41-CC3F-4A9F-9F5B-E017F625C910}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D888FC2-B978-4386-A01C-F1C0786798E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{691A174E-9668-4C1B-A140-97E4BF58C9B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD2AD287-D961-4CFF-9FA5-22E7F661AAF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10D36B65-8882-4816-B08C-AC5BE0930400}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B19CE2A-20BE-444A-AF3F-7DF78488C4D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EA6ECE3-6004-4709-BB51-971D9851B4F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA6AFB86-8A3C-4A06-8D84-FEB1E4D498C4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{719B21D9-25CA-4465-9E1D-C64CA43E5B67}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C5FD36B-908B-40BC-9420-976DC5B95B8E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59756EAA-3779-4A5A-BEBB-DC84F7970774}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D92172B6-2336-45A1-B1FE-C99B71ACA9AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DA4D7F7-A763-4F5A-8CFC-FB8B8C32805B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40D37A45-35BD-43C0-9EA1-3739E550DA4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D7928EA-B6AF-4E7C-94C0-93F10363BED4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB23841E-E8DF-4F8D-BA28-62C8D8D3077E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFB0BEF5-06C0-4E1C-BE68-B4B397FA3854}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AC1AF92-F8C9-4903-BA3E-40DD07C33937}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13857,7 +13857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780499B1-BFB8-45EE-9A4A-0309077992BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931FB68C-EA47-4C65-8898-396DC7B77234}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15090,18 +15090,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{265E485D-D319-4B46-9909-623653C1B3C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5088A5FB-8BEB-4E09-B3F4-066694262AA1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9492F8B-DEBE-4EF6-A628-A5DB20027EDA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E5682C0-CEAE-45D1-9377-C2D54BA29051}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AFE7C616-8D4C-440C-ACDB-126B900A102D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AB8F2B20-4E5E-467F-BCD0-2ADAF1290DBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E986E982-6A85-461C-82A1-56BFFAD8ECA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3ADF78A2-2010-403D-B5F5-1EDE07801B4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AE19D73-299E-4018-9F25-C4052EE9CEDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{155DE277-2FA3-4FD0-9BB8-A264371CB545}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C2F46B3-972A-407D-B4FF-C841A8C8555C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A634425-3AD4-4EE6-BED8-86F02A033BB4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A28BDD36-9C62-4E92-94A4-CDC8FC4AF9B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B173B63-7C88-4D41-9F3C-38E77F235A5A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D14B5E2E-C1D8-4D75-91DF-E7848C539BD5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF15E3F0-2DB5-4994-A154-A6750F8D6E8D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBD9847C-A91F-4D1D-8FF4-4B66AD5343B2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{74F59AF4-8E50-40B6-A1A7-F37D027BED2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C19190F0-9F85-4ED6-861A-62A47C57A378}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93420DDF-BC9F-4EB6-86A2-C494F69C96D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4064B0F-1683-42CA-B2CC-39689CA5524E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00036744-E933-4FB6-B381-B6C2ED8A9453}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FA56ACA-C692-4692-8EB5-BFB17BB95237}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16B8A3F3-B89F-4FB5-83D5-EB3360216172}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15114,7 +15114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CCA0BF-A2A2-43F8-96E0-A06C08E7B0D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90AEFBE-C7F3-416D-A36D-8270CD6FA9F0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16347,18 +16347,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07B89B97-5A8A-4479-8B76-119DC40B4696}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBF69FCE-91E0-471F-9E75-D38341EAC58A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69C1CF91-ED3D-4885-9466-EA2075581CA3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87E63879-64C5-451A-B393-3BCC7A00C7B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E26A20E-B92D-4ABB-8D9F-DE3E517F3594}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4090C2A1-D280-4816-B893-D33449D75085}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8566C463-8525-4098-B91B-96C81C9A6F4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{961BE69B-E83E-4475-8C3D-CCA200813566}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7CF99549-83D1-45C4-93AC-626FEE6DD305}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C35393C9-1BCF-4B1E-BDBC-996106AA150F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34666350-F00B-43E7-AEBA-803F815868E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1A7E30A-EF70-485C-AF9E-FE0E41909406}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B638EC8-C5F7-4D1F-893C-0ECDA65964A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE10BF8A-3E7F-4D41-B2EC-81121FA5A902}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92F24E58-6768-44CC-B0E7-236BF6949FD6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F427EDB4-C026-462F-8EA4-7A80D55DA325}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19585EB8-1842-4064-9142-C9085E1F5875}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7E4EE3DA-060B-429F-9AF1-76186AB5FA88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F98AEC8D-BF4A-4CD6-8A0D-39367FFB25F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48C73877-8D5E-4BC9-956B-DDB08DA604AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78EC75EE-AE79-42A2-8943-BFAF58647D85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A916732-5E8C-42E5-81D6-14A8A9518271}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DE6FE9F-5117-43A4-97FA-3E9DD2B5FF9D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0355C34-95DE-4A51-BAA4-6CCA533D1069}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
